--- a/Board_Design/BoM.xlsx
+++ b/Board_Design/BoM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="95">
   <si>
     <t>Resistors, RNMF14FTC750K</t>
   </si>
@@ -101,6 +101,15 @@
     <t>Resistors, RNF14FTD1K00</t>
   </si>
   <si>
+    <t>OPAMP, LT1632CN8</t>
+  </si>
+  <si>
+    <t>Resistor, RNF14FTD20K0</t>
+  </si>
+  <si>
+    <t>Resistor, RNF14FTD10K0</t>
+  </si>
+  <si>
     <t>R7, R9</t>
   </si>
   <si>
@@ -158,10 +167,10 @@
     <t>C7, C17</t>
   </si>
   <si>
-    <t>J2, J3, J5, J7</t>
-  </si>
-  <si>
-    <t>J1, J4, J9</t>
+    <t>J2, J3, J4, J7</t>
+  </si>
+  <si>
+    <t>J1, J5, J9</t>
   </si>
   <si>
     <t>J6</t>
@@ -176,6 +185,15 @@
     <t>R1</t>
   </si>
   <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
     <t>IPC-2221A/2222\RES1300-700X250</t>
   </si>
   <si>
@@ -242,10 +260,16 @@
     <t>Ultiboard\RNF14FTD1K00</t>
   </si>
   <si>
+    <t>IPC-2221A/2222\DIP-8</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Linear Technology</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -603,7 +627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -611,43 +635,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="L1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -658,37 +682,37 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -699,37 +723,37 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -740,37 +764,37 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -781,37 +805,37 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -822,37 +846,37 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -863,37 +887,37 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -904,37 +928,37 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -945,37 +969,37 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -986,37 +1010,37 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1027,37 +1051,37 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1068,37 +1092,37 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1109,37 +1133,37 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1150,37 +1174,37 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1191,37 +1215,37 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1232,37 +1256,37 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1273,37 +1297,37 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1314,37 +1338,37 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1355,37 +1379,37 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1396,37 +1420,37 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1437,37 +1461,37 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1478,37 +1502,37 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1519,37 +1543,37 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1560,37 +1584,37 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1601,37 +1625,37 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1642,37 +1666,160 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
